--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6436FCDF-C618-4849-B3A5-A26DA826DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DD2E9-8783-4ED9-80DD-D0E83EE4097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -140,7 +129,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFD5959"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF8D4B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,13 +176,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -198,6 +196,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEF8D4B"/>
+      <color rgb="FFF1995D"/>
       <color rgb="FFFD5959"/>
       <color rgb="FFFD3D3D"/>
     </mruColors>
@@ -513,7 +513,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +542,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -555,7 +560,7 @@
       <c r="B3" s="2"/>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -612,10 +617,15 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -665,7 +675,7 @@
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -676,25 +686,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -704,38 +714,41 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DD2E9-8783-4ED9-80DD-D0E83EE4097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BB2D31-969C-4CB2-9214-64F02876173A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEF8D4B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -186,6 +192,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +522,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +579,7 @@
       <c r="B4" s="2"/>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -600,17 +609,22 @@
       <c r="B7" s="2"/>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -623,9 +637,12 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -673,7 +690,12 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -722,7 +744,12 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="5">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -752,7 +779,12 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="5">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BB2D31-969C-4CB2-9214-64F02876173A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AEA705-7E2A-4523-A240-9135970F01AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -576,10 +576,15 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -599,7 +604,7 @@
       <c r="B6" s="2"/>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -660,7 +665,12 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -684,7 +694,12 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AEA705-7E2A-4523-A240-9135970F01AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08883B49-6492-4391-BA3B-B69AECD163F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,9 +542,12 @@
       <c r="C1">
         <v>1</v>
       </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
       <c r="R1">
         <f>SUM(C1:Q1)+SUM(C10:Q10)+SUM(C19:Q19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -591,10 +594,15 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -604,7 +612,7 @@
       <c r="B6" s="2"/>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -614,7 +622,7 @@
       <c r="B7" s="2"/>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -647,7 +655,7 @@
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -700,6 +708,9 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -711,6 +722,9 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -727,7 +741,12 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08883B49-6492-4391-BA3B-B69AECD163F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4735C07C-C0BF-49AA-94C0-D6DDC869D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="R1">
         <f>SUM(C1:Q1)+SUM(C10:Q10)+SUM(C19:Q19)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -572,7 +572,7 @@
       <c r="B3" s="2"/>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -585,9 +585,12 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -609,10 +612,15 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -653,9 +661,12 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -668,6 +679,9 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -684,7 +698,12 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -726,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -737,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -747,20 +766,23 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -773,8 +795,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -784,32 +809,40 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4735C07C-C0BF-49AA-94C0-D6DDC869D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDABCB50-2793-4B2C-B020-3455756BF48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="R1">
         <f>SUM(C1:Q1)+SUM(C10:Q10)+SUM(C19:Q19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -560,9 +560,12 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -572,7 +575,7 @@
       <c r="B3" s="2"/>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -627,10 +630,15 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -645,7 +653,7 @@
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -682,6 +690,9 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -704,6 +715,9 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -840,7 +854,12 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDABCB50-2793-4B2C-B020-3455756BF48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318D0EF-DFD0-4B9E-9B9F-27C13B0F4561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -593,7 +593,7 @@
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -636,9 +636,12 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -704,6 +707,9 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -723,7 +729,12 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -756,6 +767,9 @@
         <v>1</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
     </row>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318D0EF-DFD0-4B9E-9B9F-27C13B0F4561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B9778F-99D6-4274-A26B-E45ED4B9A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -150,7 +157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFD966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,20 +189,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +535,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,15 +549,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
+      <c r="C1" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
       <c r="R1">
         <f>SUM(C1:Q1)+SUM(C10:Q10)+SUM(C19:Q19)</f>
         <v>5</v>
@@ -554,15 +568,16 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
         <v>4</v>
@@ -572,7 +587,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="R3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -582,30 +600,35 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="R5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -615,12 +638,14 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="R6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -630,30 +655,33 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="R8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -663,16 +691,16 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="R9">
@@ -684,16 +712,16 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -701,75 +729,83 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>11</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -777,53 +813,62 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>14</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -831,60 +876,77 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>8</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>16</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="6">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>19</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="7">
         <v>7</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B9778F-99D6-4274-A26B-E45ED4B9A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C793C-93B9-4899-986C-922629C7EA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +538,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,9 +562,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="R1">
         <f>SUM(C1:Q1)+SUM(C10:Q10)+SUM(C19:Q19)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -578,6 +582,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
         <v>4</v>
@@ -591,6 +596,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="R3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -612,6 +618,7 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
+      <c r="F4" s="4"/>
       <c r="R4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -627,11 +634,14 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -644,11 +654,14 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
       <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -665,9 +678,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -682,9 +696,10 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -703,6 +718,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
+      <c r="F9" s="4"/>
       <c r="R9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -724,6 +740,9 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -739,6 +758,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -754,6 +774,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -767,6 +788,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -776,6 +798,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -791,6 +814,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -808,8 +832,9 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -821,8 +846,9 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -836,17 +862,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -854,8 +884,9 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -871,8 +902,9 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -886,8 +918,9 @@
         <v>1</v>
       </c>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -895,8 +928,9 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -906,10 +940,13 @@
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -919,10 +956,13 @@
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -932,10 +972,13 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -947,6 +990,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C793C-93B9-4899-986C-922629C7EA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA7B61-BC58-4124-812D-6F170DAB317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
       <c r="F2" s="4"/>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -593,13 +593,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -699,7 +701,7 @@
       <c r="F8" s="4"/>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,7 +723,7 @@
       <c r="F9" s="4"/>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -757,7 +759,9 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -975,7 +979,9 @@
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -988,7 +994,9 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA7B61-BC58-4124-812D-6F170DAB317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25865C06-98C6-42A7-A864-086FD1C773C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -189,14 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,9 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +532,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,34 +549,30 @@
       <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
       <c r="R1">
         <f>SUM(C1:Q1)+SUM(C10:Q10)+SUM(C19:Q19)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
         <v>5</v>
@@ -592,13 +582,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="R3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -608,59 +597,54 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>17</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="R6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -670,35 +654,30 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="R8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -708,22 +687,21 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -733,16 +711,19 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
@@ -750,255 +731,232 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>21</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>8</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>16</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>22</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>19</v>
       </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>7</v>
       </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25865C06-98C6-42A7-A864-086FD1C773C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73F625-5F57-4D1B-9646-0068081DFD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -206,6 +206,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +538,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,15 +555,21 @@
       <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
+      <c r="C1" s="7">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="R1">
         <f>SUM(C1:Q1)+SUM(C10:Q10)+SUM(C19:Q19)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -567,12 +579,16 @@
       <c r="B2" s="4">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
         <v>5</v>
@@ -585,9 +601,14 @@
       <c r="B3" s="5">
         <v>24</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="R3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -600,15 +621,18 @@
       <c r="B4" s="5">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="R4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -621,15 +645,21 @@
       <c r="B5" s="5">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -639,12 +669,16 @@
       <c r="B6" s="5">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="R6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -657,12 +691,16 @@
       <c r="B7" s="5">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="R7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -675,9 +713,14 @@
       <c r="B8" s="6">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="R8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -690,15 +733,18 @@
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="R9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -711,19 +757,22 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
         <v>1</v>
       </c>
     </row>
@@ -734,15 +783,18 @@
       <c r="B11" s="5">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -751,12 +803,16 @@
       <c r="B12" s="5">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -765,18 +821,28 @@
       <c r="B13" s="5">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -785,12 +851,16 @@
       <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -799,164 +869,212 @@
       <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>14</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>23</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>8</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>25</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>16</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>22</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>19</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>7</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pesni.xlsx
+++ b/Pesni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progi\schetka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73F625-5F57-4D1B-9646-0068081DFD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8CD78-2A13-4794-9966-D4E3B5653020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A1EC46EE-3810-4E2B-9F0A-F6F51019EBC3}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,9 +567,13 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="R1">
         <f>SUM(C1:Q1)+SUM(C10:Q10)+SUM(C19:Q19)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -585,13 +589,21 @@
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="R2">
         <f t="shared" ref="R2:R9" si="0">SUM(C2:Q2)+SUM(C11:Q11)+SUM(C20:Q20)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -604,14 +616,20 @@
       <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -630,12 +648,18 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -654,12 +678,18 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -679,9 +709,13 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -697,13 +731,21 @@
       <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -716,14 +758,20 @@
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -745,9 +793,13 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -775,6 +827,18 @@
       <c r="H10" s="8">
         <v>1</v>
       </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -792,9 +856,15 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -809,10 +879,18 @@
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -827,10 +905,16 @@
       <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -843,6 +927,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -857,10 +945,20 @@
       <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
       <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -881,10 +979,20 @@
       <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -894,13 +1002,21 @@
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -916,11 +1032,19 @@
       <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -930,13 +1054,25 @@
       <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -947,8 +1083,12 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -964,11 +1104,23 @@
       <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -981,12 +1133,18 @@
       <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -996,13 +1154,21 @@
       <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1015,12 +1181,20 @@
       <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1033,12 +1207,22 @@
       <c r="D25" s="7">
         <v>1</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1054,11 +1238,19 @@
       <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1071,10 +1263,18 @@
       <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
